--- a/scripts/files/products/mibura_sss_product_cisco.xlsx
+++ b/scripts/files/products/mibura_sss_product_cisco.xlsx
@@ -1084,7 +1084,7 @@
     <t>UCS 5100 Series Blade Server Chassis</t>
   </si>
   <si>
-    <t>Server</t>
+    <t>Servers</t>
   </si>
   <si>
     <t>UCS B200 M4 Blade Server</t>
